--- a/dist/checklists/xlsx/tol/stx_seq_tol_v0.3.xlsx
+++ b/dist/checklists/xlsx/tol/stx_seq_tol_v0.3.xlsx
@@ -1924,7 +1924,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="F422" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9D35" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2071,7 +2071,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="B9EF" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="FCE0" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -2176,7 +2176,7 @@
       <c r="F4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="E46B" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="AFEB" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:F4"/>
   </mergeCells>
@@ -2940,7 +2940,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9FAE" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="905B" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -3029,7 +3029,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="DC3F" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="827E" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -3382,7 +3382,7 @@
       <c r="AC4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="F6A5" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="ABAE" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:AC4"/>
   </mergeCells>
@@ -3601,7 +3601,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="F9D3" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="CA0E" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>
@@ -3770,7 +3770,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="AF51" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="EE5D" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -3980,7 +3980,7 @@
       <c r="P4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="BBAE" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="FF23" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:P4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/tol/stx_seq_tol_v0.3.xlsx
+++ b/dist/checklists/xlsx/tol/stx_seq_tol_v0.3.xlsx
@@ -1924,7 +1924,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="9D35" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="CB12" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2071,7 +2071,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="FCE0" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F921" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -2176,7 +2176,7 @@
       <c r="F4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="AFEB" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9CED" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:F4"/>
   </mergeCells>
@@ -2940,7 +2940,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="905B" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D2E0" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -3029,7 +3029,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="827E" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8CD9" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -3382,7 +3382,7 @@
       <c r="AC4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="ABAE" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="DF1F" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:AC4"/>
   </mergeCells>
@@ -3601,7 +3601,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="CA0E" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A9ED" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>
@@ -3770,7 +3770,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="EE5D" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E138" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -3980,7 +3980,7 @@
       <c r="P4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="FF23" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="FBDD" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:P4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/tol/stx_seq_tol_v0.3.xlsx
+++ b/dist/checklists/xlsx/tol/stx_seq_tol_v0.3.xlsx
@@ -1924,7 +1924,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="CB12" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F55D" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2071,7 +2071,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="F921" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="AB01" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -2176,7 +2176,7 @@
       <c r="F4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9CED" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8E3F" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:F4"/>
   </mergeCells>
@@ -2940,7 +2940,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="D2E0" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="BC37" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -3029,7 +3029,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="8CD9" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A40B" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -3382,7 +3382,7 @@
       <c r="AC4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="DF1F" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D239" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:AC4"/>
   </mergeCells>
@@ -3601,7 +3601,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A9ED" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E0C6" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>
@@ -3770,7 +3770,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="E138" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="89FE" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -3980,7 +3980,7 @@
       <c r="P4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="FBDD" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D84B" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:P4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/tol/stx_seq_tol_v0.3.xlsx
+++ b/dist/checklists/xlsx/tol/stx_seq_tol_v0.3.xlsx
@@ -1924,7 +1924,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="F55D" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="BCE3" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2071,7 +2071,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="AB01" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E7CF" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -2176,7 +2176,7 @@
       <c r="F4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="8E3F" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8D0D" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:F4"/>
   </mergeCells>
@@ -2940,7 +2940,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="BC37" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A280" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -3029,7 +3029,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A40B" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="B0E9" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -3382,7 +3382,7 @@
       <c r="AC4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="D239" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8AA0" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:AC4"/>
   </mergeCells>
@@ -3601,7 +3601,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="E0C6" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9C76" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>
@@ -3770,7 +3770,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="89FE" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="AFF5" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -3980,7 +3980,7 @@
       <c r="P4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="D84B" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C464" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:P4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/tol/stx_seq_tol_v0.3.xlsx
+++ b/dist/checklists/xlsx/tol/stx_seq_tol_v0.3.xlsx
@@ -1924,7 +1924,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="BCE3" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F767" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2071,7 +2071,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="E7CF" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C3B9" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -2176,7 +2176,7 @@
       <c r="F4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="8D0D" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D0C3" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:F4"/>
   </mergeCells>
@@ -2940,7 +2940,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A280" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C978" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -3029,7 +3029,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="B0E9" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D6F6" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -3382,7 +3382,7 @@
       <c r="AC4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="8AA0" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F826" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:AC4"/>
   </mergeCells>
@@ -3601,7 +3601,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9C76" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F5AA" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>
@@ -3770,7 +3770,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="AFF5" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="CF2F" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -3980,7 +3980,7 @@
       <c r="P4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="C464" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="CEDB" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:P4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/tol/stx_seq_tol_v0.3.xlsx
+++ b/dist/checklists/xlsx/tol/stx_seq_tol_v0.3.xlsx
@@ -1924,7 +1924,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="F767" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="B1CD" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2071,7 +2071,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="C3B9" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9BE3" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -2176,7 +2176,7 @@
       <c r="F4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="D0C3" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D6D5" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:F4"/>
   </mergeCells>
@@ -2940,7 +2940,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="C978" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="81BC" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -3029,7 +3029,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="D6F6" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="FBCC" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -3382,7 +3382,7 @@
       <c r="AC4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="F826" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="DDED" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:AC4"/>
   </mergeCells>
@@ -3601,7 +3601,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="F5AA" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="994A" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>
@@ -3770,7 +3770,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="CF2F" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D56B" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -3980,7 +3980,7 @@
       <c r="P4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="CEDB" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="CE50" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:P4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/tol/stx_seq_tol_v0.3.xlsx
+++ b/dist/checklists/xlsx/tol/stx_seq_tol_v0.3.xlsx
@@ -1924,7 +1924,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="B1CD" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A1B9" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2071,7 +2071,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9BE3" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="AB76" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -2176,7 +2176,7 @@
       <c r="F4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="D6D5" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F967" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:F4"/>
   </mergeCells>
@@ -2940,7 +2940,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="81BC" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F868" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -3029,7 +3029,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="FBCC" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="CE19" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -3382,7 +3382,7 @@
       <c r="AC4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="DDED" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="BA87" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:AC4"/>
   </mergeCells>
@@ -3601,7 +3601,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="994A" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="CFCC" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>
@@ -3770,7 +3770,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="D56B" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="CC9E" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -3980,7 +3980,7 @@
       <c r="P4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="CE50" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="82EE" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:P4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/tol/stx_seq_tol_v0.3.xlsx
+++ b/dist/checklists/xlsx/tol/stx_seq_tol_v0.3.xlsx
@@ -1924,7 +1924,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="A1B9" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F332" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2071,7 +2071,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="AB76" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9BD9" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -2176,7 +2176,7 @@
       <c r="F4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="F967" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="93B5" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:F4"/>
   </mergeCells>
@@ -2940,7 +2940,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="F868" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="851D" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -3029,7 +3029,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="CE19" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="B3E8" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -3382,7 +3382,7 @@
       <c r="AC4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="BA87" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A578" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:AC4"/>
   </mergeCells>
@@ -3601,7 +3601,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="CFCC" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C0EC" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>
@@ -3770,7 +3770,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="CC9E" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9FD1" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -3980,7 +3980,7 @@
       <c r="P4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="82EE" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9429" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:P4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/tol/stx_seq_tol_v0.3.xlsx
+++ b/dist/checklists/xlsx/tol/stx_seq_tol_v0.3.xlsx
@@ -1924,7 +1924,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="F332" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8DE9" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2071,7 +2071,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9BD9" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9EF8" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -2176,7 +2176,7 @@
       <c r="F4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="93B5" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E31B" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:F4"/>
   </mergeCells>
@@ -2940,7 +2940,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="851D" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F4AF" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -3029,7 +3029,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="B3E8" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D168" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -3382,7 +3382,7 @@
       <c r="AC4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A578" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="DD7C" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:AC4"/>
   </mergeCells>
@@ -3601,7 +3601,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="C0EC" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F346" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>
@@ -3770,7 +3770,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9FD1" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="FE36" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -3980,7 +3980,7 @@
       <c r="P4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9429" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F025" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:P4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/tol/stx_seq_tol_v0.3.xlsx
+++ b/dist/checklists/xlsx/tol/stx_seq_tol_v0.3.xlsx
@@ -1924,7 +1924,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="8DE9" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8270" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2071,7 +2071,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9EF8" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="AF8E" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -2176,7 +2176,7 @@
       <c r="F4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="E31B" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C618" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:F4"/>
   </mergeCells>
@@ -2940,7 +2940,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="F4AF" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="B59C" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -3029,7 +3029,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="D168" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9E94" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -3382,7 +3382,7 @@
       <c r="AC4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="DD7C" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9ED4" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:AC4"/>
   </mergeCells>
@@ -3601,7 +3601,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="F346" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="866F" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>
@@ -3770,7 +3770,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="FE36" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="DAA6" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -3980,7 +3980,7 @@
       <c r="P4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="F025" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D9B1" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:P4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/tol/stx_seq_tol_v0.3.xlsx
+++ b/dist/checklists/xlsx/tol/stx_seq_tol_v0.3.xlsx
@@ -1924,7 +1924,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="8270" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F046" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2071,7 +2071,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="AF8E" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F16A" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -2176,7 +2176,7 @@
       <c r="F4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="C618" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E7AE" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:F4"/>
   </mergeCells>
@@ -2940,7 +2940,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="B59C" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="B8D1" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -3029,7 +3029,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9E94" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F185" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -3382,7 +3382,7 @@
       <c r="AC4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9ED4" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A2D5" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:AC4"/>
   </mergeCells>
@@ -3601,7 +3601,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="866F" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A3B1" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>
@@ -3770,7 +3770,7 @@
       <c r="K4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="DAA6" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A2F6" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:K4"/>
   </mergeCells>
@@ -3980,7 +3980,7 @@
       <c r="P4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="D9B1" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F001" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:P4"/>
   </mergeCells>
